--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.4603593724361588</v>
+        <v>5.460359389413</v>
       </c>
       <c r="C2">
-        <v>8.6607300236225697</v>
+        <v>8.6607300076821545</v>
       </c>
       <c r="D2">
-        <v>11.770957253678688</v>
+        <v>11.770957217775141</v>
       </c>
       <c r="E2">
-        <v>21.281773092578675</v>
+        <v>21.281773075238448</v>
       </c>
       <c r="F2">
-        <v>8.0983366549379596</v>
+        <v>8.0983366429179</v>
       </c>
       <c r="G2">
-        <v>4.940861928518018</v>
+        <v>4.9408619205441227</v>
       </c>
       <c r="H2">
-        <v>7.0823537645619581</v>
+        <v>7.0823537474609992</v>
       </c>
       <c r="I2">
-        <v>10.116887616215799</v>
+        <v>10.116887615043161</v>
       </c>
       <c r="J2">
-        <v>13.430614432523079</v>
+        <v>13.430614393868645</v>
       </c>
       <c r="K2">
-        <v>4.1653972185265076</v>
+        <v>4.1653972108929409</v>
       </c>
       <c r="L2">
-        <v>2.8346685556438516</v>
+        <v>2.834668538842152</v>
       </c>
       <c r="M2">
-        <v>-3.9447283667220461</v>
+        <v>-3.9447283631847512</v>
       </c>
       <c r="N2">
-        <v>11.443105839999731</v>
+        <v>11.443105830153847</v>
       </c>
       <c r="O2">
-        <v>8.2288272117206205</v>
+        <v>8.2288271820301375</v>
       </c>
       <c r="P2">
-        <v>13.753257085930315</v>
+        <v>13.75325709744093</v>
       </c>
       <c r="Q2">
-        <v>1.5661190521180259</v>
+        <v>1.56611903431142</v>
       </c>
       <c r="R2">
-        <v>-3.7869223742766707</v>
+        <v>-3.7869223958651617</v>
       </c>
       <c r="S2">
-        <v>20.109011176943966</v>
+        <v>20.109011180607951</v>
       </c>
       <c r="T2">
-        <v>17.082858273435718</v>
+        <v>17.082858285690932</v>
       </c>
       <c r="U2">
-        <v>1.9816377511938157</v>
+        <v>1.9816377303332899</v>
       </c>
       <c r="V2">
-        <v>7.1209137407971284</v>
+        <v>7.1209137217478755</v>
       </c>
       <c r="W2">
-        <v>-4.9268676915745573</v>
+        <v>-4.9268677338442188</v>
       </c>
       <c r="X2">
-        <v>3.5796312234103524</v>
+        <v>3.5796312025971844</v>
       </c>
       <c r="Y2">
-        <v>16.236106021873333</v>
+        <v>16.236105998756869</v>
       </c>
       <c r="Z2">
-        <v>9.7784628133356009</v>
+        <v>9.7784627977791061</v>
       </c>
       <c r="AA2">
-        <v>22.410451086183876</v>
+        <v>22.410450940302745</v>
       </c>
       <c r="AB2">
-        <v>18.598180983300225</v>
+        <v>18.598180933773833</v>
       </c>
       <c r="AC2">
-        <v>3.6131450469092172</v>
+        <v>3.6131450089631443</v>
       </c>
       <c r="AD2">
-        <v>27.523899672435753</v>
+        <v>27.523899614409721</v>
       </c>
       <c r="AE2">
-        <v>9.7719955865549082</v>
+        <v>9.7719955810236243</v>
       </c>
       <c r="AF2">
-        <v>12.509249989265072</v>
+        <v>12.509249960801533</v>
       </c>
       <c r="AG2">
-        <v>13.86536139987944</v>
+        <v>13.865361331644692</v>
       </c>
       <c r="AH2">
-        <v>14.468903722108415</v>
+        <v>14.468903693455424</v>
       </c>
       <c r="AI2">
-        <v>17.345538413776083</v>
+        <v>17.345538359837846</v>
       </c>
       <c r="AJ2">
-        <v>9.3778757255063283</v>
+        <v>9.3778756903106171</v>
       </c>
       <c r="AK2">
-        <v>13.404753213295635</v>
+        <v>13.404753192122229</v>
       </c>
       <c r="AL2">
-        <v>0.90384148169077605</v>
+        <v>0.90384144657851095</v>
       </c>
       <c r="AM2">
-        <v>14.565089402128592</v>
+        <v>14.565089373690022</v>
       </c>
       <c r="AN2">
-        <v>11.887087864254511</v>
+        <v>11.887087841154354</v>
       </c>
       <c r="AO2">
-        <v>22.299702272078925</v>
+        <v>22.299702214557762</v>
       </c>
       <c r="AP2">
-        <v>14.709763589756889</v>
+        <v>14.709763560776693</v>
       </c>
       <c r="AQ2">
-        <v>2.3510127275731065</v>
+        <v>2.3510126713065276</v>
       </c>
       <c r="AR2">
-        <v>23.024548857038305</v>
+        <v>23.024548850664409</v>
       </c>
       <c r="AS2">
-        <v>22.046667743713307</v>
+        <v>22.046667662331593</v>
       </c>
       <c r="AT2">
-        <v>9.8454371447233768</v>
+        <v>9.8454371184310787</v>
       </c>
       <c r="AU2">
-        <v>13.039441315614425</v>
+        <v>13.039441310619921</v>
       </c>
       <c r="AV2">
-        <v>12.080419900353398</v>
+        <v>12.080419794718502</v>
       </c>
       <c r="AW2">
-        <v>6.6583826440273057</v>
+        <v>6.6583826274607461</v>
       </c>
       <c r="AX2">
-        <v>18.908821252957985</v>
+        <v>18.908821214582183</v>
       </c>
       <c r="AY2">
-        <v>21.422359802481147</v>
+        <v>21.422359773453046</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.1023806368578803</v>
+        <v>8.102380616623357</v>
       </c>
       <c r="C3">
-        <v>8.8586663119628497</v>
+        <v>8.8586662981120554</v>
       </c>
       <c r="D3">
-        <v>14.387917717418247</v>
+        <v>14.387917693789767</v>
       </c>
       <c r="E3">
-        <v>15.815589394545697</v>
+        <v>15.815589394817252</v>
       </c>
       <c r="F3">
-        <v>5.7075920200005967</v>
+        <v>5.7075919940712012</v>
       </c>
       <c r="G3">
-        <v>12.038344097197474</v>
+        <v>12.038344081125345</v>
       </c>
       <c r="H3">
-        <v>1.4261858661744284</v>
+        <v>1.4261858529549372</v>
       </c>
       <c r="I3">
-        <v>4.2464189947168336</v>
+        <v>4.2464189843256506</v>
       </c>
       <c r="J3">
-        <v>17.036530693124618</v>
+        <v>17.036530650956422</v>
       </c>
       <c r="K3">
-        <v>24.053877427691653</v>
+        <v>24.053877406319053</v>
       </c>
       <c r="L3">
-        <v>15.236710856520432</v>
+        <v>15.236710828683272</v>
       </c>
       <c r="M3">
-        <v>3.0366133233357075</v>
+        <v>3.036609954696992</v>
       </c>
       <c r="N3">
-        <v>9.5644220303444172</v>
+        <v>9.564422013072253</v>
       </c>
       <c r="O3">
-        <v>-8.9611712538073718</v>
+        <v>-8.9611712678021078</v>
       </c>
       <c r="P3">
-        <v>14.940770454206508</v>
+        <v>14.940770425681464</v>
       </c>
       <c r="Q3">
-        <v>6.8127211408883852</v>
+        <v>6.8127211209326077</v>
       </c>
       <c r="R3">
-        <v>1.851911030683759</v>
+        <v>1.8519109904298858</v>
       </c>
       <c r="S3">
-        <v>16.350569399637216</v>
+        <v>16.350569396819928</v>
       </c>
       <c r="T3">
-        <v>16.369421065681884</v>
+        <v>16.369421047204426</v>
       </c>
       <c r="U3">
-        <v>9.8822032939546887</v>
+        <v>9.8822032846333983</v>
       </c>
       <c r="V3">
-        <v>10.342956422926257</v>
+        <v>10.342956411192723</v>
       </c>
       <c r="W3">
-        <v>-6.896899757233399E-2</v>
+        <v>-6.8969032493377824E-2</v>
       </c>
       <c r="X3">
-        <v>-1.1482674511916073</v>
+        <v>-1.1482674677342501</v>
       </c>
       <c r="Y3">
-        <v>19.334631018488118</v>
+        <v>19.334630986921972</v>
       </c>
       <c r="Z3">
-        <v>11.866877777561569</v>
+        <v>11.866877762726972</v>
       </c>
       <c r="AA3">
-        <v>22.998556291224268</v>
+        <v>22.99855631345843</v>
       </c>
       <c r="AB3">
-        <v>18.913141666360367</v>
+        <v>18.913141631458224</v>
       </c>
       <c r="AC3">
-        <v>19.514613672066936</v>
+        <v>19.514613669163381</v>
       </c>
       <c r="AD3">
-        <v>25.935760749501007</v>
+        <v>25.935760690868229</v>
       </c>
       <c r="AE3">
-        <v>16.477839548926852</v>
+        <v>16.477839531717883</v>
       </c>
       <c r="AF3">
-        <v>13.904389089167474</v>
+        <v>13.904389059784286</v>
       </c>
       <c r="AG3">
-        <v>9.3245949874684371</v>
+        <v>9.3245949840811804</v>
       </c>
       <c r="AH3">
-        <v>8.4492453906102938</v>
+        <v>8.4492453320082817</v>
       </c>
       <c r="AI3">
-        <v>40.785284046537214</v>
+        <v>40.785283986261291</v>
       </c>
       <c r="AJ3">
-        <v>22.218876642385453</v>
+        <v>22.21887661478641</v>
       </c>
       <c r="AK3">
-        <v>18.985568521972375</v>
+        <v>18.985568503031367</v>
       </c>
       <c r="AL3">
-        <v>11.820327256687932</v>
+        <v>11.820327233927898</v>
       </c>
       <c r="AM3">
-        <v>14.367451879720342</v>
+        <v>14.367451801793614</v>
       </c>
       <c r="AN3">
-        <v>-4.3777578549484844</v>
+        <v>-4.3777578934915553</v>
       </c>
       <c r="AO3">
-        <v>23.889959681491753</v>
+        <v>23.889959651258685</v>
       </c>
       <c r="AP3">
-        <v>6.3992794747436648</v>
+        <v>6.3992794314243895</v>
       </c>
       <c r="AQ3">
-        <v>9.9127398814444518</v>
+        <v>9.9127398517738783</v>
       </c>
       <c r="AR3">
-        <v>26.31595063631228</v>
+        <v>26.315950629393214</v>
       </c>
       <c r="AS3">
-        <v>17.305930313621673</v>
+        <v>17.30593024491224</v>
       </c>
       <c r="AT3">
-        <v>14.760917619417185</v>
+        <v>14.760917563700701</v>
       </c>
       <c r="AU3">
-        <v>9.8560909079646137</v>
+        <v>9.8560908687027577</v>
       </c>
       <c r="AV3">
-        <v>8.9285121595274504</v>
+        <v>8.9285120683681924</v>
       </c>
       <c r="AW3">
-        <v>9.6524309719849555</v>
+        <v>9.6524309078869663</v>
       </c>
       <c r="AX3">
-        <v>9.4503489189021863</v>
+        <v>9.4503488707338548</v>
       </c>
       <c r="AY3">
-        <v>23.628693232214346</v>
+        <v>23.628693222346357</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>5.460359389413</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>8.6607300076821545</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>11.770957217775141</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>21.281773075238448</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8.0983366429179</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>4.9408619205441227</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>7.0823537474609992</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>10.116887615043161</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>13.430614393868645</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.1653972108929409</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.834668538842152</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-3.9447283631847512</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.443105830153847</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>8.2288271820301375</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.75325709744093</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.56611903431142</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-3.7869223958651617</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>20.109011180607951</v>
+        <v>12.480544740197175</v>
       </c>
       <c r="T2">
         <v>17.082858285690932</v>
@@ -588,55 +477,55 @@
         <v>9.7784627977791061</v>
       </c>
       <c r="AA2">
-        <v>22.410450940302745</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>18.598180933773833</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>3.6131450089631443</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>27.523899614409721</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>9.7719955810236243</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>12.509249960801533</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>13.865361331644692</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>14.468903693455424</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>17.345538359837846</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>9.3778756903106171</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>13.404753192122229</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.90384144657851095</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>14.565089373690022</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>11.887087841154354</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>22.299702214557762</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>14.709763560776693</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>2.3510126713065276</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>23.024548850664409</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>8.102380616623357</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>8.8586662981120554</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>14.387917693789767</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>15.815589394817252</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.7075919940712012</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>12.038344081125345</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.4261858529549372</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.2464189843256506</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>17.036530650956422</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>24.053877406319053</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>15.236710828683272</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.036609954696992</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>9.564422013072253</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-8.9611712678021078</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.940770425681464</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>6.8127211209326077</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.8519109904298858</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>16.350569396819928</v>
@@ -743,55 +629,55 @@
         <v>11.866877762726972</v>
       </c>
       <c r="AA3">
-        <v>22.99855631345843</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>18.913141631458224</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>19.514613669163381</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>25.935760690868229</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>16.477839531717883</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>13.904389059784286</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>9.3245949840811804</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>8.4492453320082817</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>40.785283986261291</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>22.21887661478641</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>18.985568503031367</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>11.820327233927898</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>14.367451801793614</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-4.3777578934915553</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>23.889959651258685</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>6.3992794314243895</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>9.9127398517738783</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>26.315950629393214</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>5.4603593724361588</v>
-      </c>
       <c r="C2">
-        <v>6.2183932767239867</v>
-      </c>
-      <c r="D2">
-        <v>11.770957253678688</v>
-      </c>
-      <c r="E2">
-        <v>21.281773092578675</v>
+        <v>-3.7869223958651617</v>
       </c>
       <c r="F2">
         <v>8.0983366549379596</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.1023806368578803</v>
+        <v>-3.7209366071500796</v>
       </c>
       <c r="C3">
-        <v>8.8586663119628497</v>
+        <v>1.8519109904298858</v>
       </c>
       <c r="D3">
-        <v>14.387917717418247</v>
+        <v>-3.2448504095349477</v>
       </c>
       <c r="E3">
-        <v>15.815589394545697</v>
+        <v>11.02810119935404</v>
       </c>
       <c r="F3">
         <v>5.7075920200005967</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.4603593724361588</v>
-      </c>
-      <c r="C2">
-        <v>6.2183932767239867</v>
+        <v>10.582135398461524</v>
       </c>
       <c r="D2">
-        <v>11.770957253678688</v>
-      </c>
-      <c r="E2">
-        <v>21.281773092578675</v>
+        <v>14.565089373690022</v>
       </c>
       <c r="F2">
         <v>8.0983366549379596</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.1023806368578803</v>
+        <v>9.564422013072253</v>
       </c>
       <c r="C3">
-        <v>8.8586663119628497</v>
+        <v>-3.7209366071500796</v>
       </c>
       <c r="D3">
-        <v>14.387917717418247</v>
+        <v>14.367451801793614</v>
       </c>
       <c r="E3">
-        <v>21.534407619970537</v>
+        <v>-3.2448504095349477</v>
       </c>
       <c r="F3">
         <v>5.7075920200005967</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>5.460359389413</v>
+      </c>
+      <c r="C2">
+        <v>6.2183932618775231</v>
+      </c>
+      <c r="D2">
+        <v>11.770957217775141</v>
+      </c>
+      <c r="E2">
+        <v>21.281773075238448</v>
+      </c>
+      <c r="F2">
+        <v>8.0983366429179</v>
+      </c>
+      <c r="G2">
+        <v>8.5272720062466192</v>
+      </c>
+      <c r="H2">
+        <v>7.0823537474609992</v>
+      </c>
+      <c r="I2">
+        <v>14.017002646662952</v>
+      </c>
+      <c r="J2">
+        <v>13.430614393868645</v>
+      </c>
+      <c r="K2">
+        <v>4.1653972108929409</v>
+      </c>
+      <c r="L2">
+        <v>3.9123090247464134</v>
+      </c>
+      <c r="M2">
+        <v>2.5459862343899147</v>
+      </c>
+      <c r="N2">
         <v>10.582135398461524</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>15.101204722329747</v>
+      </c>
+      <c r="Q2">
+        <v>1.56611903431142</v>
+      </c>
+      <c r="R2">
+        <v>-3.7869223958651617</v>
+      </c>
+      <c r="T2">
+        <v>13.971683013173646</v>
+      </c>
+      <c r="U2">
+        <v>1.9816377303332899</v>
+      </c>
+      <c r="V2">
+        <v>10.015782859300558</v>
+      </c>
+      <c r="W2">
+        <v>-4.9268677338442188</v>
+      </c>
+      <c r="X2">
+        <v>3.5796312025971844</v>
+      </c>
+      <c r="Y2">
+        <v>16.236105998756869</v>
+      </c>
+      <c r="Z2">
+        <v>9.7784627977791061</v>
+      </c>
+      <c r="AA2">
+        <v>22.410450940302745</v>
+      </c>
+      <c r="AB2">
+        <v>18.598180933773833</v>
+      </c>
+      <c r="AC2">
+        <v>3.6131450089631443</v>
+      </c>
+      <c r="AD2">
+        <v>27.523899614409721</v>
+      </c>
+      <c r="AE2">
+        <v>9.7719955810236243</v>
+      </c>
+      <c r="AF2">
+        <v>12.509249960801533</v>
+      </c>
+      <c r="AG2">
+        <v>13.865361331644692</v>
+      </c>
+      <c r="AH2">
+        <v>14.468903693455424</v>
+      </c>
+      <c r="AI2">
+        <v>17.345538359837846</v>
+      </c>
+      <c r="AJ2">
+        <v>9.3778756903106171</v>
+      </c>
+      <c r="AK2">
+        <v>13.404753192122229</v>
+      </c>
+      <c r="AL2">
+        <v>0.90384144657851095</v>
+      </c>
+      <c r="AM2">
         <v>14.565089373690022</v>
       </c>
-      <c r="F2">
-        <v>8.0983366549379596</v>
-      </c>
-      <c r="G2">
-        <v>8.5272720070349166</v>
-      </c>
-      <c r="H2">
-        <v>7.0823537645619581</v>
-      </c>
-      <c r="I2">
-        <v>14.017002635573178</v>
-      </c>
-      <c r="J2">
-        <v>13.430614432523079</v>
-      </c>
-      <c r="K2">
-        <v>4.1653972185265076</v>
-      </c>
-      <c r="L2">
-        <v>3.9123090535856733</v>
-      </c>
-      <c r="M2">
-        <v>2.5459862267073561</v>
-      </c>
-      <c r="N2">
-        <v>10.582135417377245</v>
-      </c>
-      <c r="P2">
-        <v>15.101204719171491</v>
-      </c>
-      <c r="Q2">
-        <v>1.5661190521180259</v>
-      </c>
-      <c r="R2">
-        <v>-3.7869223742766707</v>
-      </c>
-      <c r="T2">
-        <v>13.971683006793214</v>
-      </c>
-      <c r="U2">
-        <v>1.9816377511938157</v>
-      </c>
-      <c r="V2">
-        <v>10.015782889229982</v>
-      </c>
-      <c r="W2">
-        <v>-4.9268676915745573</v>
-      </c>
-      <c r="X2">
-        <v>3.5796312234103524</v>
-      </c>
-      <c r="Y2">
-        <v>16.236106021873333</v>
-      </c>
-      <c r="Z2">
-        <v>9.7784628133356009</v>
-      </c>
-      <c r="AA2">
-        <v>22.410451086183876</v>
-      </c>
-      <c r="AB2">
-        <v>18.598180983300225</v>
-      </c>
-      <c r="AC2">
-        <v>3.6131450469092172</v>
-      </c>
-      <c r="AD2">
-        <v>27.523899672435753</v>
-      </c>
-      <c r="AE2">
-        <v>9.7719955865549082</v>
-      </c>
-      <c r="AF2">
-        <v>12.509249989265072</v>
-      </c>
-      <c r="AG2">
-        <v>13.86536139987944</v>
-      </c>
-      <c r="AH2">
-        <v>14.468903722108415</v>
-      </c>
-      <c r="AI2">
-        <v>17.345538413776083</v>
-      </c>
-      <c r="AJ2">
-        <v>9.3778757255063283</v>
-      </c>
-      <c r="AK2">
-        <v>13.404753213295635</v>
-      </c>
-      <c r="AL2">
-        <v>0.90384148169077605</v>
-      </c>
-      <c r="AM2">
-        <v>14.565089402128592</v>
-      </c>
       <c r="AO2">
-        <v>22.299702272078925</v>
+        <v>22.299702214557762</v>
       </c>
       <c r="AP2">
-        <v>16.727198019097315</v>
+        <v>16.72719799527205</v>
       </c>
       <c r="AR2">
-        <v>23.024548857038305</v>
+        <v>23.024548850664409</v>
       </c>
       <c r="AS2">
-        <v>22.046667743713307</v>
+        <v>22.046667662331593</v>
       </c>
       <c r="AT2">
-        <v>9.8454371447233768</v>
+        <v>9.8454371184310787</v>
       </c>
       <c r="AU2">
-        <v>7.4173505583530073</v>
+        <v>7.4173505671349389</v>
       </c>
       <c r="AV2">
-        <v>12.080419900353398</v>
+        <v>12.080419794718502</v>
       </c>
       <c r="AW2">
-        <v>6.6583826440273057</v>
+        <v>6.6583826274607461</v>
       </c>
       <c r="AX2">
-        <v>18.908821252957985</v>
+        <v>18.908821214582183</v>
       </c>
       <c r="AY2">
-        <v>21.422359802481147</v>
+        <v>21.422359773453046</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>8.102380616623357</v>
+      </c>
+      <c r="C3">
+        <v>8.8586662981120554</v>
+      </c>
+      <c r="D3">
+        <v>14.387917693789767</v>
+      </c>
+      <c r="E3">
+        <v>21.534407620508034</v>
+      </c>
+      <c r="F3">
+        <v>5.7075919940712012</v>
+      </c>
+      <c r="G3">
+        <v>12.038344081125345</v>
+      </c>
+      <c r="H3">
+        <v>1.4261858529549372</v>
+      </c>
+      <c r="I3">
+        <v>4.2464189843256506</v>
+      </c>
+      <c r="J3">
+        <v>17.036530650956422</v>
+      </c>
+      <c r="K3">
+        <v>20.731594652769729</v>
+      </c>
+      <c r="L3">
+        <v>15.236710828683272</v>
+      </c>
+      <c r="M3">
+        <v>-0.92117997459301648</v>
+      </c>
+      <c r="N3">
         <v>9.564422013072253</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-3.7209366071500796</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>14.940770425681464</v>
+      </c>
+      <c r="Q3">
+        <v>6.8127211209326077</v>
+      </c>
+      <c r="R3">
+        <v>1.8519109904298858</v>
+      </c>
+      <c r="S3">
+        <v>16.350569396819928</v>
+      </c>
+      <c r="T3">
+        <v>16.369421047204426</v>
+      </c>
+      <c r="U3">
+        <v>9.8822032846333983</v>
+      </c>
+      <c r="V3">
+        <v>11.996094976690152</v>
+      </c>
+      <c r="W3">
+        <v>-6.8969032493377824E-2</v>
+      </c>
+      <c r="X3">
+        <v>-1.1482674677342501</v>
+      </c>
+      <c r="Y3">
+        <v>19.334630986921972</v>
+      </c>
+      <c r="Z3">
+        <v>11.866877762726972</v>
+      </c>
+      <c r="AA3">
+        <v>22.99855631345843</v>
+      </c>
+      <c r="AB3">
+        <v>18.913141631458224</v>
+      </c>
+      <c r="AC3">
+        <v>19.514613669163381</v>
+      </c>
+      <c r="AD3">
+        <v>25.935760690868229</v>
+      </c>
+      <c r="AE3">
+        <v>16.477839531717883</v>
+      </c>
+      <c r="AF3">
+        <v>13.904389059784286</v>
+      </c>
+      <c r="AG3">
+        <v>9.3245949840811804</v>
+      </c>
+      <c r="AH3">
+        <v>8.4492453320082817</v>
+      </c>
+      <c r="AI3">
+        <v>19.072896564325177</v>
+      </c>
+      <c r="AJ3">
+        <v>22.21887661478641</v>
+      </c>
+      <c r="AK3">
+        <v>18.985568503031367</v>
+      </c>
+      <c r="AL3">
+        <v>11.820327233927898</v>
+      </c>
+      <c r="AM3">
         <v>14.367451801793614</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-3.2448504095349477</v>
       </c>
-      <c r="F3">
-        <v>5.7075920200005967</v>
-      </c>
-      <c r="G3">
-        <v>12.038344097197474</v>
-      </c>
-      <c r="H3">
-        <v>1.4261858661744284</v>
-      </c>
-      <c r="I3">
-        <v>4.2464189947168336</v>
-      </c>
-      <c r="J3">
-        <v>17.036530693124618</v>
-      </c>
-      <c r="K3">
-        <v>20.731594680660208</v>
-      </c>
-      <c r="L3">
-        <v>15.236710856520432</v>
-      </c>
-      <c r="M3">
-        <v>-0.92114903281580496</v>
-      </c>
-      <c r="N3">
-        <v>9.5644220303444172</v>
-      </c>
-      <c r="O3">
-        <v>-3.7209365817081874</v>
-      </c>
-      <c r="P3">
-        <v>14.940770454206508</v>
-      </c>
-      <c r="Q3">
-        <v>6.8127211408883852</v>
-      </c>
-      <c r="R3">
-        <v>1.851911030683759</v>
-      </c>
-      <c r="S3">
-        <v>16.350569399637216</v>
-      </c>
-      <c r="T3">
-        <v>16.369421065681884</v>
-      </c>
-      <c r="U3">
-        <v>9.8822032939546887</v>
-      </c>
-      <c r="V3">
-        <v>11.99609498282598</v>
-      </c>
-      <c r="W3">
-        <v>-6.896899757233399E-2</v>
-      </c>
-      <c r="X3">
-        <v>-1.1482674511916073</v>
-      </c>
-      <c r="Y3">
-        <v>19.334631018488118</v>
-      </c>
-      <c r="Z3">
-        <v>11.866877777561569</v>
-      </c>
-      <c r="AA3">
-        <v>22.998556291224268</v>
-      </c>
-      <c r="AB3">
-        <v>18.913141666360367</v>
-      </c>
-      <c r="AC3">
-        <v>19.514613672066936</v>
-      </c>
-      <c r="AD3">
-        <v>25.935760749501007</v>
-      </c>
-      <c r="AE3">
-        <v>16.477839548926852</v>
-      </c>
-      <c r="AF3">
-        <v>13.904389089167474</v>
-      </c>
-      <c r="AG3">
-        <v>9.3245949874684371</v>
-      </c>
-      <c r="AH3">
-        <v>8.4492453906102938</v>
-      </c>
-      <c r="AI3">
-        <v>19.072896633411872</v>
-      </c>
-      <c r="AJ3">
-        <v>22.218876642385453</v>
-      </c>
-      <c r="AK3">
-        <v>18.985568521972375</v>
-      </c>
-      <c r="AL3">
-        <v>11.820327256687932</v>
-      </c>
-      <c r="AM3">
-        <v>14.367451879720342</v>
-      </c>
-      <c r="AN3">
-        <v>-3.2448503628765053</v>
-      </c>
       <c r="AO3">
-        <v>23.889959681491753</v>
+        <v>23.889959651258685</v>
       </c>
       <c r="AP3">
-        <v>6.3992794747436648</v>
+        <v>6.3992794314243895</v>
       </c>
       <c r="AQ3">
-        <v>11.028101207338494</v>
+        <v>11.02810119935404</v>
       </c>
       <c r="AR3">
-        <v>26.31595063631228</v>
+        <v>26.315950629393214</v>
       </c>
       <c r="AS3">
-        <v>17.305930313621673</v>
+        <v>17.30593024491224</v>
       </c>
       <c r="AT3">
-        <v>14.760917619417185</v>
+        <v>14.760917563700701</v>
       </c>
       <c r="AU3">
-        <v>11.253606486925491</v>
+        <v>11.253606474970802</v>
       </c>
       <c r="AV3">
-        <v>8.9285121595274504</v>
+        <v>8.9285120683681924</v>
       </c>
       <c r="AW3">
-        <v>9.6524309719849555</v>
+        <v>9.6524309078869663</v>
       </c>
       <c r="AX3">
-        <v>9.4503489189021863</v>
+        <v>9.4503488707338548</v>
       </c>
       <c r="AY3">
-        <v>23.628693232214346</v>
+        <v>23.628693222346357</v>
       </c>
     </row>
   </sheetData>
